--- a/SAMPLE UPLOAD/stok.xlsx
+++ b/SAMPLE UPLOAD/stok.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UwAmp\www\market_ancol\SAMPLE UPLOAD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -879,13 +874,13 @@
     <t>A36-21</t>
   </si>
   <si>
-    <t>MAR-2015</t>
+    <t>FEB-2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -990,7 +985,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1025,7 +1020,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1202,7 +1197,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1213,7 +1208,7 @@
   <dimension ref="A1:G280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
